--- a/Bindo测试用例统计.xlsx
+++ b/Bindo测试用例统计.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318">
   <si>
-    <t>Bindo检查点</t>
+    <t>Bindo检查点粗略统计</t>
   </si>
   <si>
     <t>用例编号</t>
@@ -971,7 +971,7 @@
     <t>检查餐牌_PhatThai_支付成功页面_返回主页按钮是否正常可以使用</t>
   </si>
   <si>
-    <t xml:space="preserve">the bar、EATMI、BOBBYBOX、YAMAAN、SISTER WAH NOODLE、DONGSAN DUMPLING、LAB、MADE IN INDLA、DESSERT检查点与PhatThai类似，就没有一一列出检查点了，可参考PhatThai
+    <t xml:space="preserve">餐牌the bar、EATMI、BOBBYBOX、YAMAAN、SISTER WAH NOODLE、DONGSAN DUMPLING、LAB、MADE IN INDLA、DESSERT检查点与PhatThai类似，就没有一一列出检查点了，可参考PhatThai
 </t>
   </si>
 </sst>
@@ -980,10 +980,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1003,7 +1003,7 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1018,31 +1018,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1063,14 +1079,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,31 +1095,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1124,16 +1116,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1148,13 +1140,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1169,19 +1169,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,7 +1277,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,73 +1301,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,37 +1319,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,25 +1343,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,6 +1360,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1393,15 +1396,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1417,13 +1411,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1445,27 +1443,23 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1474,10 +1468,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1486,133 +1480,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1623,10 +1617,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1988,7 +1982,7 @@
   <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2000,7 +1994,7 @@
     <col min="7" max="7" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" spans="1:3">
+    <row r="1" ht="33.75" spans="1:3">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
